--- a/src/main/resources/xlsx/unit/unitPost_openList.xlsx
+++ b/src/main/resources/xlsx/unit/unitPost_openList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\待完成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\unit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEB472B-0D7A-4A70-87A4-080FEDDF6F4E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4437B647-7A06-4FF1-B54C-662CE5D36444}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,7 +73,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>school空缺中层干部岗位列表</t>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,13 +155,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,6 +193,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -462,13 +478,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="26.45" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="26.45" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="4" customWidth="1"/>
@@ -483,9 +499,9 @@
     <col min="11" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="45.6" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -497,7 +513,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="26.45" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -529,7 +545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="26.45" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -543,9 +559,24 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
+    <row r="4" spans="1:10" ht="26.45" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
